--- a/CB-D-202107.xlsx
+++ b/CB-D-202107.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83857ABE-B779-4F7E-ABA2-77B32BF541E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0623A328-391E-4A85-9C71-AB0D208C2916}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D298135B-E4C0-45E9-BB28-1F0B05CAE31B}"/>
   </bookViews>
   <sheets>
-    <sheet name="轮动" sheetId="2" r:id="rId1"/>
+    <sheet name="轮动-每月8-11号调一次" sheetId="2" r:id="rId1"/>
     <sheet name="方案" sheetId="3" r:id="rId2"/>
     <sheet name="带上是" sheetId="4" r:id="rId3"/>
   </sheets>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
   <si>
     <t>总计</t>
   </si>
@@ -60,9 +60,6 @@
   </si>
   <si>
     <t>收益额</t>
-  </si>
-  <si>
-    <t>持仓比例</t>
   </si>
   <si>
     <t>&lt;95</t>
@@ -181,13 +178,40 @@
   <si>
     <t>参考PB值。</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>鸿达转债</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>持仓比例</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>持仓比例不超过20%</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dad账户</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>亚泰转债</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>总资产14593.19</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>总持仓可转债不超过20只，单只转债持仓不超过总持仓的10%</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -249,6 +273,13 @@
       <color rgb="FF121212"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="仿宋_GB2312"/>
+      <family val="1"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="7">
@@ -492,7 +523,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -595,60 +626,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -663,12 +640,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -692,6 +663,73 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1035,14 +1073,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEFBF750-5EAA-4883-8286-1EAD4F5E7DB3}">
-  <dimension ref="A1:W33"/>
+  <dimension ref="A1:W34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P39" sqref="P39"/>
+      <selection pane="bottomLeft" activeCell="Q40" sqref="Q40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="2.5" style="4" customWidth="1"/>
     <col min="2" max="2" width="8.75" style="1"/>
@@ -1062,68 +1100,70 @@
     <col min="17" max="17" width="29.375" style="1" customWidth="1"/>
     <col min="18" max="18" width="12" style="1" customWidth="1"/>
     <col min="19" max="19" width="8.75" style="18"/>
-    <col min="20" max="16384" width="8.75" style="1"/>
+    <col min="20" max="21" width="8.75" style="1"/>
+    <col min="22" max="22" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="35"/>
-      <c r="B1" s="41" t="s">
-        <v>28</v>
-      </c>
-      <c r="C1" s="43" t="s">
+    <row r="1" spans="1:23" s="3" customFormat="1">
+      <c r="A1" s="52"/>
+      <c r="B1" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="45" t="s">
+      <c r="D1" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="43" t="s">
+      <c r="E1" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="40" t="s">
-        <v>26</v>
-      </c>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="39" t="s">
+      <c r="F1" s="57" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39"/>
-      <c r="O1" s="39"/>
-      <c r="P1" s="39"/>
-      <c r="Q1" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="S1" s="33" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="36"/>
-      <c r="B2" s="42"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="44"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="56"/>
+      <c r="P1" s="56"/>
+      <c r="Q1" s="54" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1" s="50" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" s="2" customFormat="1">
+      <c r="A2" s="53"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="61"/>
       <c r="F2" s="15" t="s">
         <v>4</v>
       </c>
       <c r="G2" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H2" s="15" t="s">
         <v>5</v>
       </c>
       <c r="I2" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J2" s="12" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L2" s="12" t="s">
         <v>4</v>
@@ -1138,15 +1178,15 @@
         <v>10</v>
       </c>
       <c r="P2" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q2" s="38"/>
+        <v>45</v>
+      </c>
+      <c r="Q2" s="55"/>
       <c r="R2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="S2" s="34"/>
-    </row>
-    <row r="3" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="S2" s="51"/>
+    </row>
+    <row r="3" spans="1:23" s="2" customFormat="1">
       <c r="A3" s="5"/>
       <c r="B3" s="6">
         <v>1</v>
@@ -1158,7 +1198,7 @@
         <v>128127</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F3" s="15">
         <v>10</v>
@@ -1167,7 +1207,7 @@
       <c r="H3" s="15"/>
       <c r="I3" s="16"/>
       <c r="J3" s="13">
-        <v>98</v>
+        <v>98.02</v>
       </c>
       <c r="K3" s="13">
         <v>98.081000000000003</v>
@@ -1177,34 +1217,31 @@
       </c>
       <c r="M3" s="12">
         <f>J3*L3</f>
-        <v>980</v>
+        <v>980.19999999999993</v>
       </c>
       <c r="N3" s="27">
         <f>(J3-K3)/K3</f>
-        <v>-8.2584802357238472E-4</v>
+        <v>-6.2193493133233806E-4</v>
       </c>
       <c r="O3" s="12">
         <f>(J3-K3)*L3</f>
-        <v>-0.8100000000000307</v>
+        <v>-0.61000000000007049</v>
       </c>
       <c r="P3" s="27">
-        <f>M3/S3</f>
-        <v>8.5603126435817758E-2</v>
+        <f>M3/$M$32</f>
+        <v>6.7713572004907532E-2</v>
       </c>
       <c r="Q3" s="11"/>
-      <c r="S3" s="23">
-        <f>M29</f>
-        <v>11448.179999999998</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="S3" s="23"/>
+    </row>
+    <row r="4" spans="1:23">
       <c r="B4" s="6"/>
       <c r="C4" s="26"/>
       <c r="D4" s="24">
         <v>123078</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F4" s="16">
         <v>10</v>
@@ -1217,7 +1254,7 @@
       </c>
       <c r="I4" s="16"/>
       <c r="J4" s="13">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K4" s="13">
         <v>100</v>
@@ -1227,37 +1264,34 @@
       </c>
       <c r="M4" s="12">
         <f t="shared" ref="M4:M19" si="0">J4*L4</f>
-        <v>1280</v>
+        <v>1300</v>
       </c>
       <c r="N4" s="27">
-        <f t="shared" ref="N4:N28" si="1">(J4-K4)/K4</f>
-        <v>0.28000000000000003</v>
+        <f t="shared" ref="N4:N29" si="1">(J4-K4)/K4</f>
+        <v>0.3</v>
       </c>
       <c r="O4" s="12">
         <f t="shared" ref="O4:O23" si="2">(J4-K4)*L4</f>
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="P4" s="27">
-        <f>M4/S3</f>
-        <v>0.11180816514065993</v>
+        <f t="shared" ref="P4:P24" si="3">M4/$M$32</f>
+        <v>8.9805798414996738E-2</v>
       </c>
       <c r="Q4" s="9"/>
-      <c r="S4" s="28">
-        <f>S3</f>
-        <v>11448.179999999998</v>
-      </c>
+      <c r="S4" s="28"/>
       <c r="W4" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
       <c r="B5" s="6"/>
       <c r="C5" s="26"/>
       <c r="D5" s="24">
         <v>127018</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F5" s="16">
         <v>10</v>
@@ -1289,23 +1323,20 @@
         <v>31.379999999999768</v>
       </c>
       <c r="P5" s="27">
-        <f t="shared" ref="P5:P24" si="3">M5/S4</f>
-        <v>0.17639310353261392</v>
+        <f t="shared" si="3"/>
+        <v>0.13950156400252009</v>
       </c>
       <c r="Q5" s="9"/>
-      <c r="S5" s="28">
-        <f t="shared" ref="S5:S28" si="4">S4</f>
-        <v>11448.179999999998</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="S5" s="28"/>
+    </row>
+    <row r="6" spans="1:23">
       <c r="B6" s="6"/>
       <c r="C6" s="26"/>
       <c r="D6" s="10">
         <v>127020</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F6" s="16">
         <v>10</v>
@@ -1338,22 +1369,22 @@
       </c>
       <c r="P6" s="27">
         <f t="shared" si="3"/>
-        <v>0.10027794811052937</v>
+        <v>7.9305428138781733E-2</v>
       </c>
       <c r="Q6" s="9"/>
-      <c r="S6" s="28">
-        <f t="shared" si="4"/>
-        <v>11448.179999999998</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="S6" s="28"/>
+      <c r="V6" s="47" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
       <c r="B7" s="6"/>
       <c r="C7" s="26"/>
       <c r="D7" s="24">
         <v>127033</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F7" s="16">
         <v>10</v>
@@ -1373,35 +1404,35 @@
         <v>10</v>
       </c>
       <c r="M7" s="12">
-        <f t="shared" ref="M7:M12" si="5">J7*L7</f>
+        <f t="shared" ref="M7:M12" si="4">J7*L7</f>
         <v>1071.5999999999999</v>
       </c>
       <c r="N7" s="27">
-        <f t="shared" ref="N7:N12" si="6">(J7-K7)/K7</f>
+        <f t="shared" ref="N7:N12" si="5">(J7-K7)/K7</f>
         <v>7.1599999999999969E-2</v>
       </c>
       <c r="O7" s="12">
-        <f t="shared" ref="O7:O12" si="7">(J7-K7)*L7</f>
+        <f t="shared" ref="O7:O12" si="6">(J7-K7)*L7</f>
         <v>71.599999999999966</v>
       </c>
       <c r="P7" s="27">
-        <f t="shared" ref="P7:P13" si="8">M7/S6</f>
-        <v>9.3604398253696222E-2</v>
+        <f t="shared" si="3"/>
+        <v>7.4027610447315761E-2</v>
       </c>
       <c r="Q7" s="9"/>
-      <c r="S7" s="28">
-        <f t="shared" ref="S7:S13" si="9">S6</f>
-        <v>11448.179999999998</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="S7" s="28"/>
+      <c r="V7" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
       <c r="B8" s="6"/>
       <c r="C8" s="26"/>
       <c r="D8" s="24">
         <v>128087</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F8" s="16">
         <v>10</v>
@@ -1421,35 +1452,32 @@
         <v>10</v>
       </c>
       <c r="M8" s="12">
+        <f t="shared" si="4"/>
+        <v>1033.5</v>
+      </c>
+      <c r="N8" s="27">
         <f t="shared" si="5"/>
-        <v>1033.5</v>
-      </c>
-      <c r="N8" s="27">
+        <v>3.7650602409638557E-2</v>
+      </c>
+      <c r="O8" s="12">
         <f t="shared" si="6"/>
-        <v>3.7650602409638557E-2</v>
-      </c>
-      <c r="O8" s="12">
-        <f t="shared" si="7"/>
         <v>37.5</v>
       </c>
       <c r="P8" s="27">
-        <f t="shared" si="8"/>
-        <v>9.0276358338181276E-2</v>
+        <f t="shared" si="3"/>
+        <v>7.13956097399224E-2</v>
       </c>
       <c r="Q8" s="9"/>
-      <c r="S8" s="28">
-        <f t="shared" si="9"/>
-        <v>11448.179999999998</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="S8" s="28"/>
+    </row>
+    <row r="9" spans="1:23">
       <c r="B9" s="19"/>
       <c r="C9" s="26"/>
       <c r="D9" s="24">
         <v>110072</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F9" s="16">
         <v>10</v>
@@ -1469,35 +1497,32 @@
         <v>20</v>
       </c>
       <c r="M9" s="12">
+        <f t="shared" si="4"/>
+        <v>1839.4</v>
+      </c>
+      <c r="N9" s="27">
         <f t="shared" si="5"/>
-        <v>1839.4</v>
-      </c>
-      <c r="N9" s="27">
+        <v>2.3936762413716388E-2</v>
+      </c>
+      <c r="O9" s="12">
         <f t="shared" si="6"/>
-        <v>2.3936762413716388E-2</v>
-      </c>
-      <c r="O9" s="12">
-        <f t="shared" si="7"/>
         <v>43.000000000000114</v>
       </c>
       <c r="P9" s="27">
-        <f t="shared" si="8"/>
-        <v>0.16067182731228896</v>
+        <f t="shared" si="3"/>
+        <v>0.12706829661888078</v>
       </c>
       <c r="Q9" s="9"/>
-      <c r="S9" s="28">
-        <f t="shared" si="9"/>
-        <v>11448.179999999998</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="S9" s="28"/>
+    </row>
+    <row r="10" spans="1:23">
       <c r="B10" s="19"/>
       <c r="C10" s="26"/>
       <c r="D10" s="24">
         <v>113591</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F10" s="16">
         <v>10</v>
@@ -1517,35 +1542,32 @@
         <v>10</v>
       </c>
       <c r="M10" s="12">
+        <f t="shared" si="4"/>
+        <v>1054.4000000000001</v>
+      </c>
+      <c r="N10" s="27">
         <f t="shared" si="5"/>
-        <v>1054.4000000000001</v>
-      </c>
-      <c r="N10" s="27">
+        <v>9.6049896049896E-2</v>
+      </c>
+      <c r="O10" s="12">
         <f t="shared" si="6"/>
-        <v>9.6049896049896E-2</v>
-      </c>
-      <c r="O10" s="12">
-        <f t="shared" si="7"/>
         <v>92.399999999999949</v>
       </c>
       <c r="P10" s="27">
-        <f t="shared" si="8"/>
-        <v>9.2101976034618629E-2</v>
+        <f t="shared" si="3"/>
+        <v>7.2839410652901976E-2</v>
       </c>
       <c r="Q10" s="9"/>
-      <c r="S10" s="28">
-        <f t="shared" si="9"/>
-        <v>11448.179999999998</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="S10" s="28"/>
+    </row>
+    <row r="11" spans="1:23">
       <c r="B11" s="19"/>
       <c r="C11" s="26"/>
       <c r="D11" s="24">
         <v>113620</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F11" s="16">
         <v>10</v>
@@ -1554,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="H11" s="15">
-        <f t="shared" ref="H11:H12" si="10">F11*G11</f>
+        <f t="shared" ref="H11:H12" si="7">F11*G11</f>
         <v>0</v>
       </c>
       <c r="I11" s="16"/>
@@ -1568,75 +1590,95 @@
         <v>10</v>
       </c>
       <c r="M11" s="12">
+        <f t="shared" si="4"/>
+        <v>1021.9</v>
+      </c>
+      <c r="N11" s="27">
         <f t="shared" si="5"/>
-        <v>1021.9</v>
-      </c>
-      <c r="N11" s="27">
+        <v>2.1899999999999979E-2</v>
+      </c>
+      <c r="O11" s="12">
         <f t="shared" si="6"/>
-        <v>2.1899999999999979E-2</v>
-      </c>
-      <c r="O11" s="12">
+        <v>21.899999999999977</v>
+      </c>
+      <c r="P11" s="27">
+        <f t="shared" si="3"/>
+        <v>7.0594265692527053E-2</v>
+      </c>
+      <c r="Q11" s="9"/>
+      <c r="S11" s="28"/>
+      <c r="V11" s="64">
+        <v>44396</v>
+      </c>
+      <c r="W11" s="1">
+        <v>14593.19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
+      <c r="B12" s="19">
+        <v>2</v>
+      </c>
+      <c r="C12" s="26">
+        <v>44391</v>
+      </c>
+      <c r="D12" s="24">
+        <v>128085</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" s="16">
+        <v>10</v>
+      </c>
+      <c r="G12" s="21">
+        <v>0</v>
+      </c>
+      <c r="H12" s="15">
         <f t="shared" si="7"/>
-        <v>21.899999999999977</v>
-      </c>
-      <c r="P11" s="27">
-        <f t="shared" si="8"/>
-        <v>8.9263096841594045E-2</v>
-      </c>
-      <c r="Q11" s="9"/>
-      <c r="S11" s="28">
-        <f t="shared" si="9"/>
-        <v>11448.179999999998</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B12" s="19"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="16">
-        <v>10</v>
-      </c>
-      <c r="G12" s="21">
-        <v>0</v>
-      </c>
-      <c r="H12" s="15">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I12" s="16"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
+      <c r="J12" s="13">
+        <v>107</v>
+      </c>
+      <c r="K12" s="13">
+        <v>107.854</v>
+      </c>
       <c r="L12" s="13">
         <v>10</v>
       </c>
       <c r="M12" s="12">
+        <f t="shared" si="4"/>
+        <v>1070</v>
+      </c>
+      <c r="N12" s="27">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="N12" s="27" t="e">
+        <v>-7.9181115211304099E-3</v>
+      </c>
+      <c r="O12" s="12">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O12" s="12">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <v>-8.539999999999992</v>
       </c>
       <c r="P12" s="27">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>7.3917080233881924E-2</v>
       </c>
       <c r="Q12" s="9"/>
-      <c r="S12" s="28">
-        <f t="shared" si="9"/>
-        <v>11448.179999999998</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B13" s="19"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="8"/>
+      <c r="S12" s="28"/>
+    </row>
+    <row r="13" spans="1:23">
+      <c r="B13" s="19">
+        <v>3</v>
+      </c>
+      <c r="C13" s="26">
+        <v>44396</v>
+      </c>
+      <c r="D13" s="24">
+        <v>128066</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>48</v>
+      </c>
       <c r="F13" s="16">
         <v>10</v>
       </c>
@@ -1644,38 +1686,41 @@
         <v>0</v>
       </c>
       <c r="H13" s="15">
-        <f t="shared" ref="H13:H19" si="11">F13*G13</f>
+        <f t="shared" ref="H13:H19" si="8">F13*G13</f>
         <v>0</v>
       </c>
       <c r="I13" s="16"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
+      <c r="J13" s="13">
+        <v>102.93</v>
+      </c>
+      <c r="K13" s="13">
+        <v>102.937</v>
+      </c>
       <c r="L13" s="13">
         <v>10</v>
       </c>
       <c r="M13" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N13" s="27" t="e">
+        <v>1029.3000000000002</v>
+      </c>
+      <c r="N13" s="27">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>-6.8002758968988721E-5</v>
       </c>
       <c r="O13" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-6.9999999999907914E-2</v>
       </c>
       <c r="P13" s="27">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Q13" s="9"/>
-      <c r="S13" s="28">
-        <f t="shared" si="9"/>
-        <v>11448.179999999998</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>7.1105467929658578E-2</v>
+      </c>
+      <c r="Q13" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="S13" s="28"/>
+    </row>
+    <row r="14" spans="1:23">
       <c r="B14" s="19"/>
       <c r="C14" s="26"/>
       <c r="D14" s="24"/>
@@ -1687,7 +1732,7 @@
         <v>0</v>
       </c>
       <c r="H14" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I14" s="16"/>
@@ -1713,12 +1758,9 @@
         <v>0</v>
       </c>
       <c r="Q14" s="9"/>
-      <c r="S14" s="28">
-        <f t="shared" si="4"/>
-        <v>11448.179999999998</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="S14" s="28"/>
+    </row>
+    <row r="15" spans="1:23">
       <c r="B15" s="19"/>
       <c r="C15" s="26"/>
       <c r="D15" s="24"/>
@@ -1730,7 +1772,7 @@
         <v>0</v>
       </c>
       <c r="H15" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I15" s="16"/>
@@ -1756,12 +1798,9 @@
         <v>0</v>
       </c>
       <c r="Q15" s="9"/>
-      <c r="S15" s="28">
-        <f t="shared" si="4"/>
-        <v>11448.179999999998</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="S15" s="28"/>
+    </row>
+    <row r="16" spans="1:23">
       <c r="B16" s="19"/>
       <c r="C16" s="8"/>
       <c r="D16" s="24"/>
@@ -1773,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="H16" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I16" s="16"/>
@@ -1799,12 +1838,9 @@
         <v>0</v>
       </c>
       <c r="Q16" s="9"/>
-      <c r="S16" s="28">
-        <f t="shared" si="4"/>
-        <v>11448.179999999998</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S16" s="28"/>
+    </row>
+    <row r="17" spans="1:19">
       <c r="B17" s="19"/>
       <c r="C17" s="8"/>
       <c r="D17" s="24"/>
@@ -1816,7 +1852,7 @@
         <v>0</v>
       </c>
       <c r="H17" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I17" s="16"/>
@@ -1842,12 +1878,9 @@
         <v>0</v>
       </c>
       <c r="Q17" s="9"/>
-      <c r="S17" s="28">
-        <f>S3</f>
-        <v>11448.179999999998</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S17" s="28"/>
+    </row>
+    <row r="18" spans="1:19">
       <c r="B18" s="19"/>
       <c r="C18" s="8"/>
       <c r="D18" s="24"/>
@@ -1859,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="H18" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I18" s="16"/>
@@ -1885,12 +1918,9 @@
         <v>0</v>
       </c>
       <c r="Q18" s="9"/>
-      <c r="S18" s="28">
-        <f t="shared" si="4"/>
-        <v>11448.179999999998</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S18" s="28"/>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1"/>
       <c r="B19" s="7"/>
       <c r="C19" s="8"/>
@@ -1903,7 +1933,7 @@
         <v>0</v>
       </c>
       <c r="H19" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I19" s="16"/>
@@ -1929,12 +1959,9 @@
         <v>0</v>
       </c>
       <c r="Q19" s="9"/>
-      <c r="S19" s="28">
-        <f t="shared" si="4"/>
-        <v>11448.179999999998</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S19" s="28"/>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1"/>
       <c r="B20" s="7"/>
       <c r="C20" s="8"/>
@@ -1961,12 +1988,9 @@
         <v>0</v>
       </c>
       <c r="Q20" s="9"/>
-      <c r="S20" s="28">
-        <f t="shared" si="4"/>
-        <v>11448.179999999998</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S20" s="28"/>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1"/>
       <c r="B21" s="7"/>
       <c r="C21" s="8"/>
@@ -1993,12 +2017,9 @@
         <v>0</v>
       </c>
       <c r="Q21" s="9"/>
-      <c r="S21" s="28">
-        <f t="shared" si="4"/>
-        <v>11448.179999999998</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S21" s="28"/>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1"/>
       <c r="B22" s="7"/>
       <c r="C22" s="8"/>
@@ -2025,12 +2046,9 @@
         <v>0</v>
       </c>
       <c r="Q22" s="9"/>
-      <c r="S22" s="28">
-        <f t="shared" si="4"/>
-        <v>11448.179999999998</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S22" s="28"/>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1"/>
       <c r="B23" s="7"/>
       <c r="C23" s="8"/>
@@ -2057,12 +2075,9 @@
         <v>0</v>
       </c>
       <c r="Q23" s="9"/>
-      <c r="S23" s="28">
-        <f t="shared" si="4"/>
-        <v>11448.179999999998</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S23" s="28"/>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1"/>
       <c r="B24" s="7"/>
       <c r="C24" s="8"/>
@@ -2086,16 +2101,13 @@
         <v>0</v>
       </c>
       <c r="Q24" s="9"/>
-      <c r="S24" s="28">
-        <f t="shared" si="4"/>
-        <v>11448.179999999998</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S24" s="28"/>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1"/>
       <c r="B25" s="7"/>
       <c r="C25" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D25" s="31"/>
       <c r="E25" s="32"/>
@@ -2114,12 +2126,9 @@
       <c r="O25" s="13"/>
       <c r="P25" s="13"/>
       <c r="Q25" s="9"/>
-      <c r="S25" s="28">
-        <f t="shared" si="4"/>
-        <v>11448.179999999998</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S25" s="28"/>
+    </row>
+    <row r="26" spans="1:19">
       <c r="A26" s="1"/>
       <c r="B26" s="7"/>
       <c r="C26" s="8"/>
@@ -2140,12 +2149,10 @@
       <c r="O26" s="13"/>
       <c r="P26" s="13"/>
       <c r="Q26" s="9"/>
-      <c r="S26" s="28">
-        <f t="shared" si="4"/>
-        <v>11448.179999999998</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S26" s="28"/>
+    </row>
+    <row r="27" spans="1:19">
+      <c r="A27" s="1"/>
       <c r="B27" s="7"/>
       <c r="C27" s="8"/>
       <c r="D27" s="31"/>
@@ -2158,19 +2165,13 @@
       <c r="K27" s="13"/>
       <c r="L27" s="13"/>
       <c r="M27" s="13"/>
-      <c r="N27" s="27" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="N27" s="27"/>
       <c r="O27" s="13"/>
       <c r="P27" s="13"/>
       <c r="Q27" s="9"/>
-      <c r="S27" s="28">
-        <f t="shared" si="4"/>
-        <v>11448.179999999998</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S27" s="28"/>
+    </row>
+    <row r="28" spans="1:19">
       <c r="B28" s="7"/>
       <c r="C28" s="8"/>
       <c r="D28" s="31"/>
@@ -2180,8 +2181,8 @@
       <c r="H28" s="16"/>
       <c r="I28" s="16"/>
       <c r="J28" s="13"/>
-      <c r="K28" s="29"/>
-      <c r="L28" s="29"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="13"/>
       <c r="M28" s="13"/>
       <c r="N28" s="27" t="e">
         <f t="shared" si="1"/>
@@ -2190,98 +2191,117 @@
       <c r="O28" s="13"/>
       <c r="P28" s="13"/>
       <c r="Q28" s="9"/>
-      <c r="S28" s="28">
-        <f t="shared" si="4"/>
-        <v>11448.179999999998</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B29" s="47"/>
-      <c r="C29" s="48" t="s">
-        <v>0</v>
-      </c>
-      <c r="D29" s="49"/>
-      <c r="E29" s="48"/>
-      <c r="F29" s="50"/>
-      <c r="G29" s="51"/>
-      <c r="H29" s="50">
+      <c r="S28" s="28"/>
+    </row>
+    <row r="29" spans="1:19">
+      <c r="B29" s="7"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="29"/>
+      <c r="L29" s="29"/>
+      <c r="M29" s="13"/>
+      <c r="N29" s="27" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O29" s="13"/>
+      <c r="P29" s="13"/>
+      <c r="Q29" s="9"/>
+      <c r="S29" s="28"/>
+    </row>
+    <row r="30" spans="1:19">
+      <c r="B30" s="33"/>
+      <c r="C30" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="D30" s="35"/>
+      <c r="E30" s="34"/>
+      <c r="F30" s="36"/>
+      <c r="G30" s="37"/>
+      <c r="H30" s="36">
         <f>SUM(H3:H18)</f>
         <v>0</v>
       </c>
-      <c r="I29" s="50"/>
-      <c r="J29" s="52"/>
-      <c r="K29" s="53">
-        <f>SUMPRODUCT((K3:K27)*(L3:L27))</f>
-        <v>10723.21</v>
-      </c>
-      <c r="L29" s="54"/>
-      <c r="M29" s="55">
-        <f>SUM(M3:M28)</f>
-        <v>11448.179999999998</v>
-      </c>
-      <c r="N29" s="56">
-        <f>(M29-K29)/K29</f>
-        <v>6.7607554081287172E-2</v>
-      </c>
-      <c r="O29" s="57">
-        <f>SUM(O3:O28)</f>
-        <v>724.96999999999969</v>
-      </c>
-      <c r="P29" s="52"/>
-      <c r="Q29" s="58"/>
-      <c r="S29" s="23"/>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B30" s="59"/>
-      <c r="C30" s="59" t="s">
+      <c r="I30" s="36"/>
+      <c r="J30" s="38"/>
+      <c r="K30" s="48">
+        <f>SUMPRODUCT((K3:K28)*(L3:L28))</f>
+        <v>12831.119999999999</v>
+      </c>
+      <c r="L30" s="49"/>
+      <c r="M30" s="39">
+        <f>SUM(M3:M29)</f>
+        <v>13567.68</v>
+      </c>
+      <c r="N30" s="40">
+        <f>(M30-K30)/K30</f>
+        <v>5.7404186072611073E-2</v>
+      </c>
+      <c r="O30" s="41">
+        <f>SUM(O3:O29)</f>
+        <v>736.55999999999983</v>
+      </c>
+      <c r="P30" s="38"/>
+      <c r="Q30" s="42"/>
+      <c r="S30" s="23"/>
+    </row>
+    <row r="31" spans="1:19">
+      <c r="B31" s="43"/>
+      <c r="C31" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="D31" s="44"/>
+      <c r="E31" s="43"/>
+      <c r="F31" s="43"/>
+      <c r="G31" s="45"/>
+      <c r="H31" s="43"/>
+      <c r="I31" s="43"/>
+      <c r="J31" s="43"/>
+      <c r="K31" s="43"/>
+      <c r="L31" s="43"/>
+      <c r="M31" s="43">
+        <v>908</v>
+      </c>
+      <c r="N31" s="43"/>
+      <c r="O31" s="43"/>
+      <c r="P31" s="43"/>
+      <c r="Q31" s="43"/>
+    </row>
+    <row r="32" spans="1:19">
+      <c r="B32" s="43"/>
+      <c r="C32" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="D30" s="60"/>
-      <c r="E30" s="59"/>
-      <c r="F30" s="59"/>
-      <c r="G30" s="61"/>
-      <c r="H30" s="59"/>
-      <c r="I30" s="59"/>
-      <c r="J30" s="59"/>
-      <c r="K30" s="59"/>
-      <c r="L30" s="59"/>
-      <c r="M30" s="59">
-        <v>3016.43</v>
-      </c>
-      <c r="N30" s="59"/>
-      <c r="O30" s="59"/>
-      <c r="P30" s="59"/>
-      <c r="Q30" s="59"/>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B31" s="59"/>
-      <c r="C31" s="59" t="s">
-        <v>41</v>
-      </c>
-      <c r="D31" s="60"/>
-      <c r="E31" s="59"/>
-      <c r="F31" s="59"/>
-      <c r="G31" s="61"/>
-      <c r="H31" s="59"/>
-      <c r="I31" s="59"/>
-      <c r="J31" s="59"/>
-      <c r="K31" s="59"/>
-      <c r="L31" s="59"/>
-      <c r="M31" s="59">
-        <f>SUM(M29:M30)</f>
-        <v>14464.609999999999</v>
-      </c>
-      <c r="N31" s="59"/>
-      <c r="O31" s="59"/>
-      <c r="P31" s="59"/>
-      <c r="Q31" s="59"/>
-    </row>
-    <row r="33" spans="3:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="C33" s="30"/>
+      <c r="D32" s="44"/>
+      <c r="E32" s="43"/>
+      <c r="F32" s="43"/>
+      <c r="G32" s="45"/>
+      <c r="H32" s="43"/>
+      <c r="I32" s="43"/>
+      <c r="J32" s="43"/>
+      <c r="K32" s="43"/>
+      <c r="L32" s="43"/>
+      <c r="M32" s="43">
+        <f>SUM(M30:M31)</f>
+        <v>14475.68</v>
+      </c>
+      <c r="N32" s="43"/>
+      <c r="O32" s="43"/>
+      <c r="P32" s="43"/>
+      <c r="Q32" s="43"/>
+    </row>
+    <row r="34" spans="3:3" ht="15">
+      <c r="C34" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="K30:L30"/>
     <mergeCell ref="S1:S2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="Q1:Q2"/>
@@ -2301,7 +2321,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N3:N29">
+  <conditionalFormatting sqref="N3:N30">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -2319,41 +2339,41 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05B1329E-1337-4138-9A17-3602309B5170}">
-  <dimension ref="C1:E18"/>
+  <dimension ref="C1:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="R25" sqref="R25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="3:5">
       <c r="D1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" t="s">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="3:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="3:5">
       <c r="C2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D2">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="3:5">
       <c r="C3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D3">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="3:5">
       <c r="C4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D4">
         <v>20</v>
@@ -2362,9 +2382,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="3:5">
       <c r="C5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D5">
         <v>30</v>
@@ -2373,9 +2393,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="3:5">
       <c r="C6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6">
         <v>40</v>
@@ -2384,9 +2404,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="3:5">
       <c r="C7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D7">
         <v>50</v>
@@ -2395,9 +2415,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="3:5">
       <c r="C8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D8">
         <v>60</v>
@@ -2406,19 +2426,24 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="3:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="D14" s="62" t="s">
+    <row r="14" spans="3:5" ht="18">
+      <c r="D14" s="46" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="4:4">
+      <c r="D17" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D17" t="s">
+    <row r="18" spans="4:4">
+      <c r="D18" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D18" t="s">
-        <v>44</v>
+    <row r="23" spans="4:4" ht="16.5">
+      <c r="D23" s="65" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -2436,7 +2461,7 @@
       <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="8" max="8" width="13.25" customWidth="1"/>
   </cols>

--- a/CB-D-202107.xlsx
+++ b/CB-D-202107.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0623A328-391E-4A85-9C71-AB0D208C2916}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D74FC87-EC36-4A17-A524-77DE17362870}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D298135B-E4C0-45E9-BB28-1F0B05CAE31B}"/>
+    <workbookView xWindow="5265" yWindow="3330" windowWidth="21600" windowHeight="11385" xr2:uid="{D298135B-E4C0-45E9-BB28-1F0B05CAE31B}"/>
   </bookViews>
   <sheets>
     <sheet name="轮动-每月8-11号调一次" sheetId="2" r:id="rId1"/>
@@ -666,6 +666,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -726,10 +730,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1076,8 +1076,8 @@
   <dimension ref="A1:W34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q40" sqref="Q40"/>
+      <pane ySplit="2" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
@@ -1106,47 +1106,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="3" customFormat="1">
-      <c r="A1" s="52"/>
-      <c r="B1" s="58" t="s">
+      <c r="A1" s="54"/>
+      <c r="B1" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="60" t="s">
+      <c r="C1" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="62" t="s">
+      <c r="D1" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="60" t="s">
+      <c r="E1" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="57" t="s">
+      <c r="F1" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="56" t="s">
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
-      <c r="M1" s="56"/>
-      <c r="N1" s="56"/>
-      <c r="O1" s="56"/>
-      <c r="P1" s="56"/>
-      <c r="Q1" s="54" t="s">
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="58"/>
+      <c r="O1" s="58"/>
+      <c r="P1" s="58"/>
+      <c r="Q1" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="S1" s="50" t="s">
+      <c r="S1" s="52" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:23" s="2" customFormat="1">
-      <c r="A2" s="53"/>
-      <c r="B2" s="59"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="61"/>
+      <c r="A2" s="55"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="63"/>
       <c r="F2" s="15" t="s">
         <v>4</v>
       </c>
@@ -1180,11 +1180,11 @@
       <c r="P2" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="Q2" s="55"/>
+      <c r="Q2" s="57"/>
       <c r="R2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="S2" s="51"/>
+      <c r="S2" s="53"/>
     </row>
     <row r="3" spans="1:23" s="2" customFormat="1">
       <c r="A3" s="5"/>
@@ -1207,7 +1207,7 @@
       <c r="H3" s="15"/>
       <c r="I3" s="16"/>
       <c r="J3" s="13">
-        <v>98.02</v>
+        <v>98</v>
       </c>
       <c r="K3" s="13">
         <v>98.081000000000003</v>
@@ -1217,19 +1217,19 @@
       </c>
       <c r="M3" s="12">
         <f>J3*L3</f>
-        <v>980.19999999999993</v>
+        <v>980</v>
       </c>
       <c r="N3" s="27">
         <f>(J3-K3)/K3</f>
-        <v>-6.2193493133233806E-4</v>
+        <v>-8.2584802357238472E-4</v>
       </c>
       <c r="O3" s="12">
         <f>(J3-K3)*L3</f>
-        <v>-0.61000000000007049</v>
+        <v>-0.8100000000000307</v>
       </c>
       <c r="P3" s="27">
         <f>M3/$M$32</f>
-        <v>6.7713572004907532E-2</v>
+        <v>6.7589656299700818E-2</v>
       </c>
       <c r="Q3" s="11"/>
       <c r="S3" s="23"/>
@@ -1254,7 +1254,7 @@
       </c>
       <c r="I4" s="16"/>
       <c r="J4" s="13">
-        <v>130</v>
+        <v>132.37799999999999</v>
       </c>
       <c r="K4" s="13">
         <v>100</v>
@@ -1264,19 +1264,19 @@
       </c>
       <c r="M4" s="12">
         <f t="shared" ref="M4:M19" si="0">J4*L4</f>
-        <v>1300</v>
+        <v>1323.7799999999997</v>
       </c>
       <c r="N4" s="27">
         <f t="shared" ref="N4:N29" si="1">(J4-K4)/K4</f>
-        <v>0.3</v>
+        <v>0.32377999999999985</v>
       </c>
       <c r="O4" s="12">
         <f t="shared" ref="O4:O23" si="2">(J4-K4)*L4</f>
-        <v>300</v>
+        <v>323.77999999999986</v>
       </c>
       <c r="P4" s="27">
         <f t="shared" ref="P4:P24" si="3">M4/$M$32</f>
-        <v>8.9805798414996738E-2</v>
+        <v>9.1299831853487681E-2</v>
       </c>
       <c r="Q4" s="9"/>
       <c r="S4" s="28"/>
@@ -1324,7 +1324,7 @@
       </c>
       <c r="P5" s="27">
         <f t="shared" si="3"/>
-        <v>0.13950156400252009</v>
+        <v>0.13927469401886719</v>
       </c>
       <c r="Q5" s="9"/>
       <c r="S5" s="28"/>
@@ -1369,7 +1369,7 @@
       </c>
       <c r="P6" s="27">
         <f t="shared" si="3"/>
-        <v>7.9305428138781733E-2</v>
+        <v>7.917645452250667E-2</v>
       </c>
       <c r="Q6" s="9"/>
       <c r="S6" s="28"/>
@@ -1417,7 +1417,7 @@
       </c>
       <c r="P7" s="27">
         <f t="shared" si="3"/>
-        <v>7.4027610447315761E-2</v>
+        <v>7.3907220092611622E-2</v>
       </c>
       <c r="Q7" s="9"/>
       <c r="S7" s="28"/>
@@ -1465,7 +1465,7 @@
       </c>
       <c r="P8" s="27">
         <f t="shared" si="3"/>
-        <v>7.13956097399224E-2</v>
+        <v>7.1279499781368161E-2</v>
       </c>
       <c r="Q8" s="9"/>
       <c r="S8" s="28"/>
@@ -1510,7 +1510,7 @@
       </c>
       <c r="P9" s="27">
         <f t="shared" si="3"/>
-        <v>0.12706829661888078</v>
+        <v>0.12686164673231601</v>
       </c>
       <c r="Q9" s="9"/>
       <c r="S9" s="28"/>
@@ -1555,7 +1555,7 @@
       </c>
       <c r="P10" s="27">
         <f t="shared" si="3"/>
-        <v>7.2839410652901976E-2</v>
+        <v>7.2720952655514842E-2</v>
       </c>
       <c r="Q10" s="9"/>
       <c r="S10" s="28"/>
@@ -1603,11 +1603,11 @@
       </c>
       <c r="P11" s="27">
         <f t="shared" si="3"/>
-        <v>7.0594265692527053E-2</v>
+        <v>7.0479458951698229E-2</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="S11" s="28"/>
-      <c r="V11" s="64">
+      <c r="V11" s="48">
         <v>44396</v>
       </c>
       <c r="W11" s="1">
@@ -1661,7 +1661,7 @@
       </c>
       <c r="P12" s="27">
         <f t="shared" si="3"/>
-        <v>7.3917080233881924E-2</v>
+        <v>7.3796869633346807E-2</v>
       </c>
       <c r="Q12" s="9"/>
       <c r="S12" s="28"/>
@@ -1713,7 +1713,7 @@
       </c>
       <c r="P13" s="27">
         <f t="shared" si="3"/>
-        <v>7.1105467929658578E-2</v>
+        <v>7.0989829825798031E-2</v>
       </c>
       <c r="Q13" s="9" t="s">
         <v>49</v>
@@ -2230,22 +2230,22 @@
       </c>
       <c r="I30" s="36"/>
       <c r="J30" s="38"/>
-      <c r="K30" s="48">
+      <c r="K30" s="50">
         <f>SUMPRODUCT((K3:K28)*(L3:L28))</f>
         <v>12831.119999999999</v>
       </c>
-      <c r="L30" s="49"/>
+      <c r="L30" s="51"/>
       <c r="M30" s="39">
         <f>SUM(M3:M29)</f>
-        <v>13567.68</v>
+        <v>13591.259999999998</v>
       </c>
       <c r="N30" s="40">
         <f>(M30-K30)/K30</f>
-        <v>5.7404186072611073E-2</v>
+        <v>5.9241905616968703E-2</v>
       </c>
       <c r="O30" s="41">
         <f>SUM(O3:O29)</f>
-        <v>736.55999999999983</v>
+        <v>760.13999999999976</v>
       </c>
       <c r="P30" s="38"/>
       <c r="Q30" s="42"/>
@@ -2289,7 +2289,7 @@
       <c r="L32" s="43"/>
       <c r="M32" s="43">
         <f>SUM(M30:M31)</f>
-        <v>14475.68</v>
+        <v>14499.259999999998</v>
       </c>
       <c r="N32" s="43"/>
       <c r="O32" s="43"/>
@@ -2442,7 +2442,7 @@
       </c>
     </row>
     <row r="23" spans="4:4" ht="16.5">
-      <c r="D23" s="65" t="s">
+      <c r="D23" s="49" t="s">
         <v>50</v>
       </c>
     </row>
